--- a/db/data infokaryawan to sql.xlsx
+++ b/db/data infokaryawan to sql.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatma Isma\Documents\hasan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hcmotani\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3377DFCC-C034-4408-97C2-9EFC7AAB85A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90610F4E-5094-4FEF-A856-14D137E3385E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05E5E57D-F4DC-459F-B728-635B489B4301}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05E5E57D-F4DC-459F-B728-635B489B4301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4294,25 +4293,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1801B-6C8F-4DE2-8D98-655C96DBBDA2}">
   <dimension ref="B1:Q277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="34.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="5" width="34.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="3"/>
+    <col min="9" max="9" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="8">
         <v>1</v>
       </c>
@@ -4342,7 +4341,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="8">
         <v>2</v>
       </c>
@@ -4372,7 +4371,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>4</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>5</v>
       </c>
@@ -4466,7 +4465,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>6</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>7</v>
       </c>
@@ -4528,7 +4527,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>8</v>
       </c>
@@ -4558,7 +4557,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>9</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>10</v>
       </c>
@@ -4613,7 +4612,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>11</v>
       </c>
@@ -4646,7 +4645,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>12</v>
       </c>
@@ -4679,7 +4678,7 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>13</v>
       </c>
@@ -4712,7 +4711,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>14</v>
       </c>
@@ -4745,7 +4744,7 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>15</v>
       </c>
@@ -4778,7 +4777,7 @@
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>16</v>
       </c>
@@ -4811,7 +4810,7 @@
       </c>
       <c r="L16"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>17</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="K17" s="4"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -4873,7 +4872,7 @@
       </c>
       <c r="L18"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>19</v>
       </c>
@@ -4904,7 +4903,7 @@
       <c r="K19" s="4"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>20</v>
       </c>
@@ -4934,7 +4933,7 @@
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>21</v>
       </c>
@@ -4967,7 +4966,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>22</v>
       </c>
@@ -4997,7 +4996,7 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>23</v>
       </c>
@@ -5027,7 +5026,7 @@
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>24</v>
       </c>
@@ -5057,7 +5056,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>25</v>
       </c>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>26</v>
       </c>
@@ -5117,7 +5116,7 @@
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>27</v>
       </c>
@@ -5147,7 +5146,7 @@
       </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>28</v>
       </c>
@@ -5177,7 +5176,7 @@
       </c>
       <c r="L28"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>29</v>
       </c>
@@ -5207,7 +5206,7 @@
       </c>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>30</v>
       </c>
@@ -5237,7 +5236,7 @@
       </c>
       <c r="L30"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>31</v>
       </c>
@@ -5270,7 +5269,7 @@
       </c>
       <c r="L31"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>32</v>
       </c>
@@ -5300,7 +5299,7 @@
       </c>
       <c r="L32"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>33</v>
       </c>
@@ -5327,7 +5326,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>34</v>
       </c>
@@ -5360,7 +5359,7 @@
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>35</v>
       </c>
@@ -5393,7 +5392,7 @@
       </c>
       <c r="L35"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>36</v>
       </c>
@@ -5421,7 +5420,7 @@
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>37</v>
       </c>
@@ -5441,7 +5440,7 @@
       <c r="J37" s="4"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>38</v>
       </c>
@@ -5474,7 +5473,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>39</v>
       </c>
@@ -5507,7 +5506,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>40</v>
       </c>
@@ -5540,7 +5539,7 @@
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>41</v>
       </c>
@@ -5570,7 +5569,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
         <v>42</v>
       </c>
@@ -5603,7 +5602,7 @@
       </c>
       <c r="L42"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>43</v>
       </c>
@@ -5633,7 +5632,7 @@
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
         <v>44</v>
       </c>
@@ -5663,7 +5662,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
         <v>45</v>
       </c>
@@ -5693,7 +5692,7 @@
       </c>
       <c r="L45"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
         <v>46</v>
       </c>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>47</v>
       </c>
@@ -5753,7 +5752,7 @@
       </c>
       <c r="L47"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>48</v>
       </c>
@@ -5786,7 +5785,7 @@
       </c>
       <c r="L48"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>49</v>
       </c>
@@ -5819,7 +5818,7 @@
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>50</v>
       </c>
@@ -5852,7 +5851,7 @@
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="8">
         <v>51</v>
       </c>
@@ -5882,7 +5881,7 @@
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="8">
         <v>52</v>
       </c>
@@ -5912,7 +5911,7 @@
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="8">
         <v>53</v>
       </c>
@@ -5942,7 +5941,7 @@
       </c>
       <c r="L53"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="8">
         <v>54</v>
       </c>
@@ -5972,7 +5971,7 @@
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="8">
         <v>55</v>
       </c>
@@ -6002,7 +6001,7 @@
       </c>
       <c r="L55"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="8">
         <v>56</v>
       </c>
@@ -6026,7 +6025,7 @@
       <c r="J56" s="4"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>57</v>
       </c>
@@ -6059,7 +6058,7 @@
       </c>
       <c r="L57"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="8">
         <v>58</v>
       </c>
@@ -6092,7 +6091,7 @@
       </c>
       <c r="L58"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="8">
         <v>59</v>
       </c>
@@ -6125,7 +6124,7 @@
       </c>
       <c r="L59"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="8">
         <v>60</v>
       </c>
@@ -6158,7 +6157,7 @@
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="8">
         <v>61</v>
       </c>
@@ -6191,7 +6190,7 @@
       </c>
       <c r="L61"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="8">
         <v>62</v>
       </c>
@@ -6224,7 +6223,7 @@
       </c>
       <c r="L62"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" s="8">
         <v>63</v>
       </c>
@@ -6244,7 +6243,7 @@
       <c r="J63" s="4"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>64</v>
       </c>
@@ -6275,7 +6274,7 @@
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="8">
         <v>65</v>
       </c>
@@ -6303,7 +6302,7 @@
       <c r="J65" s="4"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="8">
         <v>66</v>
       </c>
@@ -6333,7 +6332,7 @@
       </c>
       <c r="L66"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>67</v>
       </c>
@@ -6363,7 +6362,7 @@
       </c>
       <c r="L67"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="8">
         <v>68</v>
       </c>
@@ -6383,7 +6382,7 @@
       <c r="J68" s="4"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="8">
         <v>69</v>
       </c>
@@ -6413,7 +6412,7 @@
       </c>
       <c r="L69"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="8">
         <v>70</v>
       </c>
@@ -6446,7 +6445,7 @@
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
         <v>71</v>
       </c>
@@ -6474,7 +6473,7 @@
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" s="8">
         <v>72</v>
       </c>
@@ -6504,7 +6503,7 @@
       </c>
       <c r="L72"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" s="8">
         <v>73</v>
       </c>
@@ -6537,7 +6536,7 @@
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" s="8">
         <v>74</v>
       </c>
@@ -6567,7 +6566,7 @@
       </c>
       <c r="L74"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="8">
         <v>75</v>
       </c>
@@ -6597,7 +6596,7 @@
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="8">
         <v>76</v>
       </c>
@@ -6627,7 +6626,7 @@
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="8">
         <v>77</v>
       </c>
@@ -6657,7 +6656,7 @@
       </c>
       <c r="L77"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" s="8">
         <v>78</v>
       </c>
@@ -6687,7 +6686,7 @@
       </c>
       <c r="L78"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="8">
         <v>79</v>
       </c>
@@ -6717,7 +6716,7 @@
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" s="8">
         <v>80</v>
       </c>
@@ -6747,7 +6746,7 @@
       </c>
       <c r="L80"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>81</v>
       </c>
@@ -6780,7 +6779,7 @@
       </c>
       <c r="L81"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>82</v>
       </c>
@@ -6810,7 +6809,7 @@
       </c>
       <c r="L82"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>83</v>
       </c>
@@ -6840,7 +6839,7 @@
       </c>
       <c r="L83"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>84</v>
       </c>
@@ -6870,7 +6869,7 @@
       </c>
       <c r="L84"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>85</v>
       </c>
@@ -6903,7 +6902,7 @@
       </c>
       <c r="L85"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>86</v>
       </c>
@@ -6933,7 +6932,7 @@
       </c>
       <c r="L86"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>87</v>
       </c>
@@ -6953,7 +6952,7 @@
       <c r="J87" s="4"/>
       <c r="L87"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>88</v>
       </c>
@@ -6983,7 +6982,7 @@
       </c>
       <c r="L88"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>89</v>
       </c>
@@ -7013,7 +7012,7 @@
       </c>
       <c r="L89"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>90</v>
       </c>
@@ -7043,7 +7042,7 @@
       </c>
       <c r="L90"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>91</v>
       </c>
@@ -7073,7 +7072,7 @@
       </c>
       <c r="L91"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>92</v>
       </c>
@@ -7106,7 +7105,7 @@
       </c>
       <c r="L92"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>93</v>
       </c>
@@ -7139,7 +7138,7 @@
       </c>
       <c r="L93"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>94</v>
       </c>
@@ -7169,7 +7168,7 @@
       </c>
       <c r="L94"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>95</v>
       </c>
@@ -7202,7 +7201,7 @@
       </c>
       <c r="L95"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>96</v>
       </c>
@@ -7232,7 +7231,7 @@
       </c>
       <c r="L96"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" s="8">
         <v>97</v>
       </c>
@@ -7262,7 +7261,7 @@
       </c>
       <c r="L97"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="8">
         <v>98</v>
       </c>
@@ -7295,7 +7294,7 @@
       </c>
       <c r="L98"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="8">
         <v>99</v>
       </c>
@@ -7323,7 +7322,7 @@
       </c>
       <c r="L99"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" s="8">
         <v>100</v>
       </c>
@@ -7353,7 +7352,7 @@
       </c>
       <c r="L100"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="8">
         <v>101</v>
       </c>
@@ -7383,7 +7382,7 @@
       </c>
       <c r="L101"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="8">
         <v>102</v>
       </c>
@@ -7413,7 +7412,7 @@
       </c>
       <c r="L102"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="8">
         <v>103</v>
       </c>
@@ -7443,7 +7442,7 @@
       </c>
       <c r="L103"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="8">
         <v>104</v>
       </c>
@@ -7473,7 +7472,7 @@
       </c>
       <c r="L104"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="8">
         <v>105</v>
       </c>
@@ -7503,7 +7502,7 @@
       </c>
       <c r="L105"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="8">
         <v>106</v>
       </c>
@@ -7536,7 +7535,7 @@
       </c>
       <c r="L106"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="8">
         <v>107</v>
       </c>
@@ -7569,7 +7568,7 @@
       </c>
       <c r="L107"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" s="8">
         <v>108</v>
       </c>
@@ -7599,7 +7598,7 @@
       </c>
       <c r="L108"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" s="8">
         <v>109</v>
       </c>
@@ -7629,7 +7628,7 @@
       </c>
       <c r="L109"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" s="8">
         <v>110</v>
       </c>
@@ -7659,7 +7658,7 @@
       </c>
       <c r="L110"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" s="8">
         <v>111</v>
       </c>
@@ -7689,7 +7688,7 @@
       </c>
       <c r="L111"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" s="8">
         <v>112</v>
       </c>
@@ -7719,7 +7718,7 @@
       </c>
       <c r="L112"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="8">
         <v>113</v>
       </c>
@@ -7749,7 +7748,7 @@
       </c>
       <c r="L113"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="8">
         <v>114</v>
       </c>
@@ -7782,7 +7781,7 @@
       </c>
       <c r="L114"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="8">
         <v>115</v>
       </c>
@@ -7815,7 +7814,7 @@
       </c>
       <c r="L115"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="8">
         <v>116</v>
       </c>
@@ -7848,7 +7847,7 @@
       </c>
       <c r="L116"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="8">
         <v>117</v>
       </c>
@@ -7878,7 +7877,7 @@
       </c>
       <c r="L117"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="8">
         <v>118</v>
       </c>
@@ -7911,7 +7910,7 @@
       </c>
       <c r="L118"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="8">
         <v>119</v>
       </c>
@@ -7941,7 +7940,7 @@
       </c>
       <c r="L119"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" s="8">
         <v>120</v>
       </c>
@@ -7971,7 +7970,7 @@
       </c>
       <c r="L120"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="8">
         <v>121</v>
       </c>
@@ -8004,7 +8003,7 @@
       </c>
       <c r="L121"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" s="8">
         <v>122</v>
       </c>
@@ -8034,7 +8033,7 @@
       </c>
       <c r="L122"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" s="8">
         <v>123</v>
       </c>
@@ -8067,7 +8066,7 @@
       </c>
       <c r="L123"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="8">
         <v>124</v>
       </c>
@@ -8097,7 +8096,7 @@
       </c>
       <c r="L124"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" s="8">
         <v>125</v>
       </c>
@@ -8130,7 +8129,7 @@
       </c>
       <c r="L125"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" s="8">
         <v>126</v>
       </c>
@@ -8163,7 +8162,7 @@
       </c>
       <c r="L126"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B127" s="8">
         <v>127</v>
       </c>
@@ -8193,7 +8192,7 @@
       </c>
       <c r="L127"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" s="8">
         <v>128</v>
       </c>
@@ -8223,7 +8222,7 @@
       </c>
       <c r="L128"/>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B129" s="8">
         <v>129</v>
       </c>
@@ -8256,7 +8255,7 @@
       </c>
       <c r="L129"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B130" s="8">
         <v>130</v>
       </c>
@@ -8286,7 +8285,7 @@
       </c>
       <c r="L130"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B131" s="8">
         <v>131</v>
       </c>
@@ -8316,7 +8315,7 @@
       </c>
       <c r="L131"/>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B132" s="8">
         <v>132</v>
       </c>
@@ -8349,7 +8348,7 @@
       </c>
       <c r="L132"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B133" s="8">
         <v>133</v>
       </c>
@@ -8382,7 +8381,7 @@
       </c>
       <c r="L133"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B134" s="8">
         <v>134</v>
       </c>
@@ -8415,7 +8414,7 @@
       </c>
       <c r="L134"/>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B135" s="8">
         <v>135</v>
       </c>
@@ -8448,7 +8447,7 @@
       </c>
       <c r="L135"/>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B136" s="8">
         <v>136</v>
       </c>
@@ -8481,7 +8480,7 @@
       </c>
       <c r="L136"/>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B137" s="8">
         <v>137</v>
       </c>
@@ -8514,7 +8513,7 @@
       </c>
       <c r="L137"/>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B138" s="8">
         <v>138</v>
       </c>
@@ -8544,7 +8543,7 @@
       </c>
       <c r="L138"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B139" s="8">
         <v>139</v>
       </c>
@@ -8574,7 +8573,7 @@
       </c>
       <c r="L139"/>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B140" s="8">
         <v>140</v>
       </c>
@@ -8604,7 +8603,7 @@
       </c>
       <c r="L140"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" s="8">
         <v>141</v>
       </c>
@@ -8634,7 +8633,7 @@
       </c>
       <c r="L141"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" s="8">
         <v>142</v>
       </c>
@@ -8667,7 +8666,7 @@
       </c>
       <c r="L142"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" s="8">
         <v>143</v>
       </c>
@@ -8700,7 +8699,7 @@
       </c>
       <c r="L143"/>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" s="8">
         <v>144</v>
       </c>
@@ -8730,7 +8729,7 @@
       </c>
       <c r="L144"/>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B145" s="8">
         <v>145</v>
       </c>
@@ -8763,7 +8762,7 @@
       </c>
       <c r="L145"/>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146" s="8">
         <v>146</v>
       </c>
@@ -8793,7 +8792,7 @@
       </c>
       <c r="L146"/>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147" s="8">
         <v>147</v>
       </c>
@@ -8823,7 +8822,7 @@
       </c>
       <c r="L147"/>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" s="8">
         <v>148</v>
       </c>
@@ -8853,7 +8852,7 @@
       </c>
       <c r="L148"/>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" s="8">
         <v>149</v>
       </c>
@@ -8883,7 +8882,7 @@
       </c>
       <c r="L149"/>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" s="8">
         <v>150</v>
       </c>
@@ -8916,7 +8915,7 @@
       </c>
       <c r="L150"/>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" s="8">
         <v>151</v>
       </c>
@@ -8946,7 +8945,7 @@
       </c>
       <c r="L151"/>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" s="8">
         <v>152</v>
       </c>
@@ -8976,7 +8975,7 @@
       </c>
       <c r="L152"/>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="8">
         <v>153</v>
       </c>
@@ -9006,7 +9005,7 @@
       </c>
       <c r="L153"/>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" s="8">
         <v>154</v>
       </c>
@@ -9034,7 +9033,7 @@
       </c>
       <c r="L154"/>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" s="8">
         <v>155</v>
       </c>
@@ -9064,7 +9063,7 @@
       </c>
       <c r="L155"/>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" s="8">
         <v>156</v>
       </c>
@@ -9094,7 +9093,7 @@
       </c>
       <c r="L156"/>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157" s="8">
         <v>157</v>
       </c>
@@ -9124,7 +9123,7 @@
       </c>
       <c r="L157"/>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" s="8">
         <v>158</v>
       </c>
@@ -9157,7 +9156,7 @@
       </c>
       <c r="L158"/>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="8">
         <v>159</v>
       </c>
@@ -9187,7 +9186,7 @@
       </c>
       <c r="L159"/>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" s="8">
         <v>160</v>
       </c>
@@ -9217,7 +9216,7 @@
       </c>
       <c r="L160"/>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B161" s="8">
         <v>161</v>
       </c>
@@ -9247,7 +9246,7 @@
       </c>
       <c r="L161"/>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" s="8">
         <v>162</v>
       </c>
@@ -9277,7 +9276,7 @@
       </c>
       <c r="L162"/>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B163" s="8">
         <v>163</v>
       </c>
@@ -9307,7 +9306,7 @@
       </c>
       <c r="L163"/>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B164" s="8">
         <v>164</v>
       </c>
@@ -9340,7 +9339,7 @@
       </c>
       <c r="L164"/>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B165" s="8">
         <v>165</v>
       </c>
@@ -9370,7 +9369,7 @@
       </c>
       <c r="L165"/>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B166" s="8">
         <v>166</v>
       </c>
@@ -9400,7 +9399,7 @@
       </c>
       <c r="L166"/>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B167" s="8">
         <v>167</v>
       </c>
@@ -9430,7 +9429,7 @@
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B168" s="8">
         <v>168</v>
       </c>
@@ -9460,7 +9459,7 @@
       </c>
       <c r="L168"/>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B169" s="8">
         <v>169</v>
       </c>
@@ -9493,7 +9492,7 @@
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B170" s="8">
         <v>170</v>
       </c>
@@ -9523,7 +9522,7 @@
       </c>
       <c r="L170"/>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B171" s="8">
         <v>171</v>
       </c>
@@ -9553,7 +9552,7 @@
       </c>
       <c r="L171"/>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B172" s="8">
         <v>172</v>
       </c>
@@ -9575,7 +9574,7 @@
       <c r="J172" s="4"/>
       <c r="L172"/>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B173" s="8">
         <v>173</v>
       </c>
@@ -9605,7 +9604,7 @@
       </c>
       <c r="L173"/>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B174" s="8">
         <v>174</v>
       </c>
@@ -9635,7 +9634,7 @@
       </c>
       <c r="L174"/>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B175" s="8">
         <v>175</v>
       </c>
@@ -9665,7 +9664,7 @@
       </c>
       <c r="L175"/>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B176" s="8">
         <v>176</v>
       </c>
@@ -9695,7 +9694,7 @@
       </c>
       <c r="L176"/>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B177" s="8">
         <v>177</v>
       </c>
@@ -9725,7 +9724,7 @@
       </c>
       <c r="L177"/>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B178" s="8">
         <v>178</v>
       </c>
@@ -9755,7 +9754,7 @@
       </c>
       <c r="L178"/>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B179" s="8">
         <v>179</v>
       </c>
@@ -9788,7 +9787,7 @@
       </c>
       <c r="L179"/>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B180" s="8">
         <v>180</v>
       </c>
@@ -9818,7 +9817,7 @@
       </c>
       <c r="L180"/>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B181" s="8">
         <v>181</v>
       </c>
@@ -9851,7 +9850,7 @@
       </c>
       <c r="L181"/>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B182" s="8">
         <v>182</v>
       </c>
@@ -9881,7 +9880,7 @@
       </c>
       <c r="L182"/>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B183" s="8">
         <v>183</v>
       </c>
@@ -9914,7 +9913,7 @@
       </c>
       <c r="L183"/>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B184" s="8">
         <v>184</v>
       </c>
@@ -9947,7 +9946,7 @@
       </c>
       <c r="L184"/>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B185" s="8">
         <v>185</v>
       </c>
@@ -9977,7 +9976,7 @@
       </c>
       <c r="L185"/>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B186" s="8">
         <v>186</v>
       </c>
@@ -10007,7 +10006,7 @@
       </c>
       <c r="L186"/>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B187" s="8">
         <v>187</v>
       </c>
@@ -10037,7 +10036,7 @@
       </c>
       <c r="L187"/>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B188" s="8">
         <v>188</v>
       </c>
@@ -10067,7 +10066,7 @@
       </c>
       <c r="L188"/>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B189" s="8">
         <v>189</v>
       </c>
@@ -10097,7 +10096,7 @@
       </c>
       <c r="L189"/>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B190" s="8">
         <v>190</v>
       </c>
@@ -10130,7 +10129,7 @@
       </c>
       <c r="L190"/>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B191" s="8">
         <v>191</v>
       </c>
@@ -10163,7 +10162,7 @@
       </c>
       <c r="L191"/>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B192" s="8">
         <v>192</v>
       </c>
@@ -10193,7 +10192,7 @@
       </c>
       <c r="L192"/>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B193" s="8">
         <v>193</v>
       </c>
@@ -10223,7 +10222,7 @@
       </c>
       <c r="L193"/>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" s="8">
         <v>194</v>
       </c>
@@ -10253,7 +10252,7 @@
       </c>
       <c r="L194"/>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" s="8">
         <v>195</v>
       </c>
@@ -10286,7 +10285,7 @@
       </c>
       <c r="L195"/>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" s="8">
         <v>196</v>
       </c>
@@ -10319,7 +10318,7 @@
       </c>
       <c r="L196"/>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" s="8">
         <v>197</v>
       </c>
@@ -10352,7 +10351,7 @@
       </c>
       <c r="L197"/>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" s="8">
         <v>198</v>
       </c>
@@ -10385,7 +10384,7 @@
       </c>
       <c r="L198"/>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" s="8">
         <v>199</v>
       </c>
@@ -10415,7 +10414,7 @@
       </c>
       <c r="L199"/>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" s="8">
         <v>200</v>
       </c>
@@ -10435,7 +10434,7 @@
       <c r="J200" s="4"/>
       <c r="L200"/>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B201" s="8">
         <v>201</v>
       </c>
@@ -10465,7 +10464,7 @@
       </c>
       <c r="L201"/>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B202" s="8">
         <v>202</v>
       </c>
@@ -10485,7 +10484,7 @@
       <c r="J202" s="4"/>
       <c r="L202"/>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B203" s="8">
         <v>203</v>
       </c>
@@ -10515,7 +10514,7 @@
       </c>
       <c r="L203"/>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B204" s="8">
         <v>204</v>
       </c>
@@ -10545,7 +10544,7 @@
       </c>
       <c r="L204"/>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B205" s="8">
         <v>205</v>
       </c>
@@ -10575,7 +10574,7 @@
       </c>
       <c r="L205"/>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B206" s="8">
         <v>206</v>
       </c>
@@ -10605,7 +10604,7 @@
       </c>
       <c r="L206"/>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B207" s="8">
         <v>207</v>
       </c>
@@ -10633,7 +10632,7 @@
       <c r="J207" s="4"/>
       <c r="L207"/>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B208" s="8">
         <v>208</v>
       </c>
@@ -10666,7 +10665,7 @@
       </c>
       <c r="L208"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" s="8">
         <v>209</v>
       </c>
@@ -10699,7 +10698,7 @@
       </c>
       <c r="L209"/>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B210" s="8">
         <v>210</v>
       </c>
@@ -10729,7 +10728,7 @@
       </c>
       <c r="L210"/>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="8">
         <v>211</v>
       </c>
@@ -10759,7 +10758,7 @@
       </c>
       <c r="L211"/>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="8">
         <v>212</v>
       </c>
@@ -10792,7 +10791,7 @@
       </c>
       <c r="L212"/>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="8">
         <v>213</v>
       </c>
@@ -10822,7 +10821,7 @@
       </c>
       <c r="L213"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" s="8">
         <v>214</v>
       </c>
@@ -10852,7 +10851,7 @@
       </c>
       <c r="L214"/>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" s="8">
         <v>215</v>
       </c>
@@ -10885,7 +10884,7 @@
       </c>
       <c r="L215"/>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" s="8">
         <v>216</v>
       </c>
@@ -10918,7 +10917,7 @@
       </c>
       <c r="L216"/>
     </row>
-    <row r="217" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" s="8">
         <v>217</v>
       </c>
@@ -10948,7 +10947,7 @@
       </c>
       <c r="L217"/>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B218" s="8">
         <v>218</v>
       </c>
@@ -10978,7 +10977,7 @@
       </c>
       <c r="L218"/>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B219" s="8">
         <v>219</v>
       </c>
@@ -11008,7 +11007,7 @@
       </c>
       <c r="L219"/>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B220" s="8">
         <v>220</v>
       </c>
@@ -11039,7 +11038,7 @@
       </c>
       <c r="L220"/>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B221" s="8">
         <v>221</v>
       </c>
@@ -11072,7 +11071,7 @@
       </c>
       <c r="L221"/>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B222" s="8">
         <v>222</v>
       </c>
@@ -11105,7 +11104,7 @@
       </c>
       <c r="L222"/>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B223" s="8">
         <v>223</v>
       </c>
@@ -11138,7 +11137,7 @@
       </c>
       <c r="L223"/>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B224" s="8">
         <v>224</v>
       </c>
@@ -11171,7 +11170,7 @@
       </c>
       <c r="L224"/>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B225" s="8">
         <v>225</v>
       </c>
@@ -11204,7 +11203,7 @@
       </c>
       <c r="L225"/>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B226" s="8">
         <v>226</v>
       </c>
@@ -11223,7 +11222,7 @@
       <c r="I226" s="4"/>
       <c r="L226"/>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B227" s="8">
         <v>227</v>
       </c>
@@ -11253,7 +11252,7 @@
       </c>
       <c r="L227"/>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B228" s="8">
         <v>228</v>
       </c>
@@ -11286,7 +11285,7 @@
       </c>
       <c r="L228"/>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B229" s="8">
         <v>229</v>
       </c>
@@ -11316,7 +11315,7 @@
       </c>
       <c r="L229"/>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B230" s="8">
         <v>230</v>
       </c>
@@ -11346,7 +11345,7 @@
       </c>
       <c r="L230"/>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B231" s="8">
         <v>231</v>
       </c>
@@ -11379,7 +11378,7 @@
       </c>
       <c r="L231"/>
     </row>
-    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B232" s="8">
         <v>232</v>
       </c>
@@ -11409,7 +11408,7 @@
       </c>
       <c r="L232"/>
     </row>
-    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B233" s="8">
         <v>233</v>
       </c>
@@ -11439,7 +11438,7 @@
       </c>
       <c r="L233"/>
     </row>
-    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B234" s="8">
         <v>234</v>
       </c>
@@ -11469,7 +11468,7 @@
       </c>
       <c r="L234"/>
     </row>
-    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B235" s="8">
         <v>235</v>
       </c>
@@ -11499,7 +11498,7 @@
       </c>
       <c r="L235"/>
     </row>
-    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B236" s="8">
         <v>236</v>
       </c>
@@ -11526,7 +11525,7 @@
       </c>
       <c r="L236"/>
     </row>
-    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B237" s="8">
         <v>237</v>
       </c>
@@ -11551,7 +11550,7 @@
       </c>
       <c r="L237"/>
     </row>
-    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B238" s="8">
         <v>238</v>
       </c>
@@ -11581,7 +11580,7 @@
       </c>
       <c r="L238"/>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B239" s="8">
         <v>239</v>
       </c>
@@ -11611,7 +11610,7 @@
       </c>
       <c r="L239"/>
     </row>
-    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B240" s="8">
         <v>240</v>
       </c>
@@ -11641,7 +11640,7 @@
       </c>
       <c r="L240"/>
     </row>
-    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B241" s="8">
         <v>241</v>
       </c>
@@ -11674,7 +11673,7 @@
       </c>
       <c r="L241"/>
     </row>
-    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B242" s="8">
         <v>242</v>
       </c>
@@ -11704,7 +11703,7 @@
       </c>
       <c r="L242"/>
     </row>
-    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B243" s="8">
         <v>243</v>
       </c>
@@ -11723,7 +11722,7 @@
       <c r="I243" s="5"/>
       <c r="L243"/>
     </row>
-    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B244" s="8">
         <v>244</v>
       </c>
@@ -11742,7 +11741,7 @@
       <c r="I244" s="5"/>
       <c r="L244"/>
     </row>
-    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B245" s="8">
         <v>245</v>
       </c>
@@ -11775,7 +11774,7 @@
       </c>
       <c r="L245"/>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B246" s="8">
         <v>246</v>
       </c>
@@ -11808,7 +11807,7 @@
       </c>
       <c r="L246"/>
     </row>
-    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B247" s="8">
         <v>247</v>
       </c>
@@ -11838,7 +11837,7 @@
       </c>
       <c r="L247"/>
     </row>
-    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B248" s="8">
         <v>248</v>
       </c>
@@ -11868,7 +11867,7 @@
       </c>
       <c r="L248"/>
     </row>
-    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B249" s="8">
         <v>249</v>
       </c>
@@ -11896,7 +11895,7 @@
       </c>
       <c r="L249"/>
     </row>
-    <row r="250" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B250" s="8">
         <v>250</v>
       </c>
@@ -11926,7 +11925,7 @@
       </c>
       <c r="L250"/>
     </row>
-    <row r="251" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B251" s="8">
         <v>251</v>
       </c>
@@ -11956,7 +11955,7 @@
       </c>
       <c r="L251"/>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B252" s="8">
         <v>252</v>
       </c>
@@ -11986,7 +11985,7 @@
       </c>
       <c r="L252"/>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B253" s="8">
         <v>253</v>
       </c>
@@ -12016,7 +12015,7 @@
       </c>
       <c r="L253"/>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B254" s="8">
         <v>254</v>
       </c>
@@ -12046,7 +12045,7 @@
       </c>
       <c r="L254"/>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B255" s="8">
         <v>255</v>
       </c>
@@ -12079,7 +12078,7 @@
       </c>
       <c r="L255"/>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B256" s="8">
         <v>256</v>
       </c>
@@ -12109,7 +12108,7 @@
       </c>
       <c r="L256"/>
     </row>
-    <row r="257" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B257" s="8">
         <v>257</v>
       </c>
@@ -12142,7 +12141,7 @@
       </c>
       <c r="L257"/>
     </row>
-    <row r="258" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B258" s="8">
         <v>258</v>
       </c>
@@ -12170,7 +12169,7 @@
       </c>
       <c r="L258"/>
     </row>
-    <row r="259" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B259" s="8">
         <v>259</v>
       </c>
@@ -12203,7 +12202,7 @@
       </c>
       <c r="L259"/>
     </row>
-    <row r="260" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B260" s="8">
         <v>260</v>
       </c>
@@ -12236,7 +12235,7 @@
       </c>
       <c r="L260"/>
     </row>
-    <row r="261" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B261" s="8">
         <v>261</v>
       </c>
@@ -12255,7 +12254,7 @@
       <c r="I261" s="4"/>
       <c r="L261"/>
     </row>
-    <row r="262" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B262" s="8">
         <v>262</v>
       </c>
@@ -12288,7 +12287,7 @@
       </c>
       <c r="L262"/>
     </row>
-    <row r="263" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B263" s="8">
         <v>263</v>
       </c>
@@ -12317,7 +12316,7 @@
       <c r="K263" s="5"/>
       <c r="L263"/>
     </row>
-    <row r="264" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B264" s="8">
         <v>264</v>
       </c>
@@ -12350,7 +12349,7 @@
       </c>
       <c r="L264"/>
     </row>
-    <row r="265" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B265" s="8">
         <v>265</v>
       </c>
@@ -12380,7 +12379,7 @@
       </c>
       <c r="L265"/>
     </row>
-    <row r="266" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B266" s="8">
         <v>266</v>
       </c>
@@ -12410,7 +12409,7 @@
       </c>
       <c r="L266"/>
     </row>
-    <row r="267" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B267" s="8">
         <v>267</v>
       </c>
@@ -12443,7 +12442,7 @@
       </c>
       <c r="L267"/>
     </row>
-    <row r="268" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B268" s="8">
         <v>268</v>
       </c>
@@ -12473,7 +12472,7 @@
       </c>
       <c r="L268"/>
     </row>
-    <row r="269" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B269" s="8">
         <v>269</v>
       </c>
@@ -12503,7 +12502,7 @@
       </c>
       <c r="L269"/>
     </row>
-    <row r="270" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B270" s="8">
         <v>270</v>
       </c>
@@ -12533,7 +12532,7 @@
       </c>
       <c r="L270"/>
     </row>
-    <row r="271" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B271" s="8">
         <v>271</v>
       </c>
@@ -12563,7 +12562,7 @@
       </c>
       <c r="L271"/>
     </row>
-    <row r="272" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B272" s="8">
         <v>272</v>
       </c>
@@ -12593,7 +12592,7 @@
       </c>
       <c r="L272"/>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B273" s="8">
         <v>273</v>
       </c>
@@ -12623,7 +12622,7 @@
       </c>
       <c r="L273"/>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B274" s="8">
         <v>274</v>
       </c>
@@ -12643,7 +12642,7 @@
       <c r="J274" s="4"/>
       <c r="L274"/>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B275" s="8">
         <v>275</v>
       </c>
@@ -12673,7 +12672,7 @@
       </c>
       <c r="L275"/>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B276" s="8">
         <v>276</v>
       </c>
@@ -12703,7 +12702,7 @@
       </c>
       <c r="L276"/>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B277" s="8">
         <v>277</v>
       </c>
@@ -12738,18 +12737,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8177E9-A998-4C08-B85D-01F278CB8463}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J268"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>